--- a/file/static/teamScoresDemo.xlsx
+++ b/file/static/teamScoresDemo.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F9928E2-6B4A-4C6F-BEBC-2A6EAB99B8C7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860FFD26-35E6-4492-9516-BAFF2BCA7F7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
     <t>排名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,12 +29,16 @@
     <t>队伍id号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>获奖名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,6 +68,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -85,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -94,6 +106,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -374,27 +387,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" s="5"/>
     </row>
   </sheetData>
